--- a/studies/labor study_A/laborstudy_participants.xlsx
+++ b/studies/labor study_A/laborstudy_participants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\studies\labor study_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7DFCE4-CFD6-45C8-979C-DD4A33205572}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995ED1A9-EAF8-4A10-BAA2-01E22FCE5F9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14030" activeTab="1" xr2:uid="{BDDA6DD9-A3F0-4BE1-8936-EA19C001B822}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="119">
   <si>
     <t>teacher</t>
   </si>
@@ -361,25 +361,49 @@
     <t>franziska.frohberg@uni-leipzig.de</t>
   </si>
   <si>
-    <t>Pagel</t>
-  </si>
-  <si>
-    <t>Anne-Kathrin</t>
-  </si>
-  <si>
     <t>expert</t>
   </si>
   <si>
-    <t>expert/experience/novice</t>
-  </si>
-  <si>
     <t>experience</t>
   </si>
   <si>
     <t>student (?)</t>
   </si>
   <si>
-    <t>empschul@uni-leipzig.de</t>
+    <t>invited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">on board </t>
+  </si>
+  <si>
+    <t>expert/novice</t>
+  </si>
+  <si>
+    <t>de Groote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expert </t>
+  </si>
+  <si>
+    <t>Schule</t>
+  </si>
+  <si>
+    <t>novice</t>
+  </si>
+  <si>
+    <t>livecoding</t>
+  </si>
+  <si>
+    <t>patrickhawlitschek@gmx.de</t>
+  </si>
+  <si>
+    <t>Lugovaya</t>
+  </si>
+  <si>
+    <t>mandy.klatt@uni-leipzig.de</t>
+  </si>
+  <si>
+    <t>lugovaya.anna@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -426,7 +450,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -462,6 +486,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -477,7 +513,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
@@ -499,10 +535,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -512,18 +544,29 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="2" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="2" builtinId="8"/>
@@ -843,7 +886,7 @@
   <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1776,10 +1819,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA92A0B8-1E06-4CA5-BDBA-D9002597F91F}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1790,564 +1833,594 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="G1" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="12"/>
+    </row>
+    <row r="2" spans="1:10" s="16" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="16">
+        <v>1</v>
+      </c>
+      <c r="G2" s="16">
+        <v>0</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="16">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="16">
+        <v>1</v>
+      </c>
+      <c r="G3" s="16">
+        <v>1</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="16">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="16">
+        <v>1</v>
+      </c>
+      <c r="G4" s="16">
+        <v>1</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="16">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="16">
+        <v>1</v>
+      </c>
+      <c r="G5" s="16">
+        <v>1</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="19">
+        <v>5</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="19">
+        <v>1</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="19">
+        <v>6</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="19">
+        <v>1</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="19">
+        <v>7</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="19">
+        <v>1</v>
+      </c>
+      <c r="G8" s="19">
+        <v>0</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="19">
+        <v>9</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="19">
+        <v>1</v>
+      </c>
+      <c r="G9" s="19">
+        <v>1</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="12"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="15">
+        <f>SUM(F2:F10)</f>
         <v>8</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="14"/>
-    </row>
-    <row r="2" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="14">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14" t="s">
+      <c r="G11" s="15">
+        <f>SUM(G2:G10)</f>
+        <v>4</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="12">
+        <v>2</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="13">
+        <v>1</v>
+      </c>
+      <c r="G31" s="13">
+        <v>0</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="12">
+        <v>3</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="13">
+        <v>1</v>
+      </c>
+      <c r="G32" s="13">
+        <v>0</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" s="12">
+        <v>5</v>
+      </c>
+      <c r="B33" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="15" t="s">
+      <c r="C33" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="13">
+        <v>1</v>
+      </c>
+      <c r="G33" s="13">
+        <v>0</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" s="12">
+        <v>6</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="15">
-        <v>1</v>
-      </c>
-      <c r="G2" s="15">
+      <c r="F34" s="13">
+        <v>1</v>
+      </c>
+      <c r="G34" s="13">
         <v>0</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="14">
-        <v>2</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="15">
-        <v>1</v>
-      </c>
-      <c r="G3" s="15">
+      <c r="H34" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35" s="12">
+        <v>7</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="13">
+        <v>1</v>
+      </c>
+      <c r="G35" s="13">
         <v>0</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="14">
-        <v>3</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="15">
-        <v>1</v>
-      </c>
-      <c r="G4" s="15">
+      <c r="H35" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36" s="12">
+        <v>8</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F36" s="13">
+        <v>1</v>
+      </c>
+      <c r="G36" s="13">
         <v>0</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="14">
-        <v>5</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="15">
-        <v>1</v>
-      </c>
-      <c r="G5" s="15">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="14">
-        <v>6</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="15">
-        <v>1</v>
-      </c>
-      <c r="G6" s="15">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="14">
-        <v>7</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="15">
-        <v>1</v>
-      </c>
-      <c r="G7" s="15">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="14">
-        <v>8</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="15">
-        <v>1</v>
-      </c>
-      <c r="G8" s="15">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7" t="s">
+      <c r="H36" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="14">
-        <v>9</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="15">
-        <v>1</v>
-      </c>
-      <c r="G9" s="15">
-        <v>0</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="14">
-        <v>10</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="15">
-        <v>1</v>
-      </c>
-      <c r="G10" s="15">
-        <v>0</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="14">
-        <v>11</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="15">
-        <v>1</v>
-      </c>
-      <c r="G11" s="15">
-        <v>1</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="14">
-        <v>12</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="14">
-        <v>13</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="14">
-        <v>14</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="14">
-        <v>15</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="14">
-        <v>16</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="14">
-        <v>17</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="14">
-        <v>18</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="14">
-        <v>19</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="14">
-        <v>20</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="14">
-        <v>21</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="14"/>
-      <c r="B22" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="18">
-        <f>SUM(F2:F21)</f>
-        <v>10</v>
-      </c>
-      <c r="G22" s="18">
-        <f>SUM(G2:G21)</f>
-        <v>1</v>
-      </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" display="mailto:anne.lorenz@uni-leipzig.de" xr:uid="{6A6840A7-F91E-4498-BC0E-25C541E19E8F}"/>
-    <hyperlink ref="H6" r:id="rId2" xr:uid="{DCCDCFD5-556B-4EE9-8EE2-78DC1EA5787A}"/>
-    <hyperlink ref="H7" r:id="rId3" xr:uid="{E8CAAE5C-55E5-4A52-94C5-30079ADFC9B0}"/>
-    <hyperlink ref="H8" r:id="rId4" xr:uid="{43407BDC-117F-4D95-9C6A-5823495A62D3}"/>
-    <hyperlink ref="H5" r:id="rId5" xr:uid="{A6156D63-A002-4796-A336-064625E282E7}"/>
-    <hyperlink ref="H4" r:id="rId6" xr:uid="{68CE6390-2462-42BE-A276-26AAB1653F3A}"/>
-    <hyperlink ref="H9" r:id="rId7" xr:uid="{2404C3A1-C0CB-4C2F-B5DF-D6AA4B64976E}"/>
-    <hyperlink ref="H11" r:id="rId8" xr:uid="{712E2F11-D214-494C-A4DF-B0CD3C40D469}"/>
-    <hyperlink ref="H10" r:id="rId9" xr:uid="{9ECB6A31-76DD-418B-9312-3DEA0F897CAD}"/>
+    <hyperlink ref="H31" r:id="rId1" display="mailto:anne.lorenz@uni-leipzig.de" xr:uid="{6A6840A7-F91E-4498-BC0E-25C541E19E8F}"/>
+    <hyperlink ref="H34" r:id="rId2" xr:uid="{DCCDCFD5-556B-4EE9-8EE2-78DC1EA5787A}"/>
+    <hyperlink ref="H35" r:id="rId3" xr:uid="{E8CAAE5C-55E5-4A52-94C5-30079ADFC9B0}"/>
+    <hyperlink ref="H36" r:id="rId4" xr:uid="{43407BDC-117F-4D95-9C6A-5823495A62D3}"/>
+    <hyperlink ref="H33" r:id="rId5" xr:uid="{A6156D63-A002-4796-A336-064625E282E7}"/>
+    <hyperlink ref="H32" r:id="rId6" xr:uid="{68CE6390-2462-42BE-A276-26AAB1653F3A}"/>
+    <hyperlink ref="H5" r:id="rId7" xr:uid="{2404C3A1-C0CB-4C2F-B5DF-D6AA4B64976E}"/>
+    <hyperlink ref="H4" r:id="rId8" xr:uid="{712E2F11-D214-494C-A4DF-B0CD3C40D469}"/>
+    <hyperlink ref="H6" r:id="rId9" xr:uid="{C69991F5-7865-4825-9452-D52A85A6A4DA}"/>
+    <hyperlink ref="H3" r:id="rId10" xr:uid="{F06A78FD-795C-4A59-8F40-611DD9E2C851}"/>
+    <hyperlink ref="H7" r:id="rId11" xr:uid="{D2262437-663A-452E-A43B-9F2D7F46DA26}"/>
+    <hyperlink ref="H9" r:id="rId12" xr:uid="{4021FAC2-EF2E-463C-B17A-C9912AFF1C84}"/>
+    <hyperlink ref="H8" r:id="rId13" xr:uid="{BC57889A-A6C9-4A01-BFD9-BC2B67CA0B63}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/studies/labor study_A/laborstudy_participants.xlsx
+++ b/studies/labor study_A/laborstudy_participants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\studies\labor study_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995ED1A9-EAF8-4A10-BAA2-01E22FCE5F9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE4C10A-665F-4709-91DE-82C6BB86E4A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14030" activeTab="1" xr2:uid="{BDDA6DD9-A3F0-4BE1-8936-EA19C001B822}"/>
   </bookViews>
@@ -1822,7 +1822,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1882,7 +1882,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>50</v>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="G11" s="15">
         <f>SUM(G2:G10)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>

--- a/studies/labor study_A/laborstudy_participants.xlsx
+++ b/studies/labor study_A/laborstudy_participants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\studies\labor study_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE4C10A-665F-4709-91DE-82C6BB86E4A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F54B6AF-00B2-421B-AD68-8BEDB0B19452}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14030" activeTab="1" xr2:uid="{BDDA6DD9-A3F0-4BE1-8936-EA19C001B822}"/>
   </bookViews>
@@ -1822,7 +1822,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1986,7 +1986,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="20" t="s">
         <v>115</v>
@@ -2012,7 +2012,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="20" t="s">
         <v>68</v>
@@ -2038,7 +2038,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="22" t="s">
         <v>118</v>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="G11" s="15">
         <f>SUM(G2:G10)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
@@ -2431,7 +2431,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/studies/labor study_A/laborstudy_participants.xlsx
+++ b/studies/labor study_A/laborstudy_participants.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20359"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\studies\labor study_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F54B6AF-00B2-421B-AD68-8BEDB0B19452}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F273E47-B924-4E4C-A4E9-DCEF8CD94BB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14030" activeTab="1" xr2:uid="{BDDA6DD9-A3F0-4BE1-8936-EA19C001B822}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="117">
   <si>
     <t>teacher</t>
   </si>
@@ -380,12 +380,6 @@
   </si>
   <si>
     <t>de Groote</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expert </t>
-  </si>
-  <si>
-    <t>Schule</t>
   </si>
   <si>
     <t>novice</t>
@@ -1822,7 +1816,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1915,30 +1909,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="16">
-        <v>3</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="16">
-        <v>1</v>
-      </c>
-      <c r="G4" s="16">
-        <v>1</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>79</v>
-      </c>
+      <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16">
@@ -1971,7 +1942,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>34</v>
@@ -1989,7 +1960,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.35">
@@ -1997,7 +1968,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>59</v>
@@ -2023,25 +1994,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="19">
+        <v>1</v>
+      </c>
+      <c r="G8" s="19">
+        <v>1</v>
+      </c>
+      <c r="H8" s="22" t="s">
         <v>116</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="19">
-        <v>1</v>
-      </c>
-      <c r="G8" s="19">
-        <v>1</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.35">
@@ -2049,7 +2020,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>6</v>
@@ -2067,7 +2038,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -2092,11 +2063,11 @@
       </c>
       <c r="F11" s="15">
         <f>SUM(F2:F10)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G11" s="15">
         <f>SUM(G2:G10)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
@@ -2141,7 +2112,7 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="12"/>
       <c r="B14" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>48</v>
@@ -2415,12 +2386,11 @@
     <hyperlink ref="H33" r:id="rId5" xr:uid="{A6156D63-A002-4796-A336-064625E282E7}"/>
     <hyperlink ref="H32" r:id="rId6" xr:uid="{68CE6390-2462-42BE-A276-26AAB1653F3A}"/>
     <hyperlink ref="H5" r:id="rId7" xr:uid="{2404C3A1-C0CB-4C2F-B5DF-D6AA4B64976E}"/>
-    <hyperlink ref="H4" r:id="rId8" xr:uid="{712E2F11-D214-494C-A4DF-B0CD3C40D469}"/>
-    <hyperlink ref="H6" r:id="rId9" xr:uid="{C69991F5-7865-4825-9452-D52A85A6A4DA}"/>
-    <hyperlink ref="H3" r:id="rId10" xr:uid="{F06A78FD-795C-4A59-8F40-611DD9E2C851}"/>
-    <hyperlink ref="H7" r:id="rId11" xr:uid="{D2262437-663A-452E-A43B-9F2D7F46DA26}"/>
-    <hyperlink ref="H9" r:id="rId12" xr:uid="{4021FAC2-EF2E-463C-B17A-C9912AFF1C84}"/>
-    <hyperlink ref="H8" r:id="rId13" xr:uid="{BC57889A-A6C9-4A01-BFD9-BC2B67CA0B63}"/>
+    <hyperlink ref="H6" r:id="rId8" xr:uid="{C69991F5-7865-4825-9452-D52A85A6A4DA}"/>
+    <hyperlink ref="H3" r:id="rId9" xr:uid="{F06A78FD-795C-4A59-8F40-611DD9E2C851}"/>
+    <hyperlink ref="H7" r:id="rId10" xr:uid="{D2262437-663A-452E-A43B-9F2D7F46DA26}"/>
+    <hyperlink ref="H9" r:id="rId11" xr:uid="{4021FAC2-EF2E-463C-B17A-C9912AFF1C84}"/>
+    <hyperlink ref="H8" r:id="rId12" xr:uid="{BC57889A-A6C9-4A01-BFD9-BC2B67CA0B63}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
